--- a/res/questions.xlsx
+++ b/res/questions.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="tree" sheetId="2" r:id="rId2"/>
-    <sheet name="graph" sheetId="3" r:id="rId3"/>
-    <sheet name="linked-list" sheetId="4" r:id="rId4"/>
-    <sheet name="dynamic-programming" sheetId="5" r:id="rId5"/>
-    <sheet name="recursion" sheetId="6" r:id="rId6"/>
-    <sheet name="array" sheetId="7" r:id="rId7"/>
-    <sheet name="string" sheetId="8" r:id="rId8"/>
+    <sheet name="tree" sheetId="1" r:id="rId1"/>
+    <sheet name="graph" sheetId="2" r:id="rId2"/>
+    <sheet name="linked-list" sheetId="3" r:id="rId3"/>
+    <sheet name="dynamic-programming" sheetId="4" r:id="rId4"/>
+    <sheet name="recursion" sheetId="5" r:id="rId5"/>
+    <sheet name="array" sheetId="6" r:id="rId6"/>
+    <sheet name="string" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -382,19 +381,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
@@ -867,7 +853,7 @@
         <v>Binary Search Tree Iterator</v>
       </c>
       <c r="C28" t="str">
-        <v>60.6%</v>
+        <v>60.7%</v>
       </c>
       <c r="D28" t="str">
         <v>Medium</v>
@@ -2550,7 +2536,7 @@
         <v>Deepest Leaves Sum</v>
       </c>
       <c r="C127" t="str">
-        <v>84.7%</v>
+        <v>84.8%</v>
       </c>
       <c r="D127" t="str">
         <v>Medium</v>
@@ -3077,7 +3063,7 @@
         <v>Tree of Coprimes</v>
       </c>
       <c r="C158" t="str">
-        <v>36.7%</v>
+        <v>36.8%</v>
       </c>
       <c r="D158" t="str">
         <v>Hard</v>
@@ -3110,7 +3096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -4144,7 +4130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -4906,7 +4892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E255"/>
   <sheetViews>
@@ -6621,7 +6607,7 @@
         <v>Delete and Earn</v>
       </c>
       <c r="C101" t="str">
-        <v>49.9%</v>
+        <v>50.0%</v>
       </c>
       <c r="D101" t="str">
         <v>Medium</v>
@@ -9222,7 +9208,7 @@
         <v>Maximum Number of Groups Getting Fresh Donuts</v>
       </c>
       <c r="C254" t="str">
-        <v>38.5%</v>
+        <v>38.6%</v>
       </c>
       <c r="D254" t="str">
         <v>Hard</v>
@@ -9239,7 +9225,7 @@
         <v>Minimum Sideway Jumps</v>
       </c>
       <c r="C255" t="str">
-        <v>44.5%</v>
+        <v>44.7%</v>
       </c>
       <c r="D255" t="str">
         <v>Medium</v>
@@ -9255,7 +9241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
@@ -9882,7 +9868,7 @@
         <v>Construct the Lexicographically Largest Valid Sequence</v>
       </c>
       <c r="C37" t="str">
-        <v>46.5%</v>
+        <v>46.6%</v>
       </c>
       <c r="D37" t="str">
         <v>Medium</v>
@@ -9949,7 +9935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E316"/>
   <sheetViews>
@@ -13296,7 +13282,7 @@
         <v>Rank Transform of an Array</v>
       </c>
       <c r="C197" t="str">
-        <v>57.4%</v>
+        <v>57.3%</v>
       </c>
       <c r="D197" t="str">
         <v>Easy</v>
@@ -13568,7 +13554,7 @@
         <v>Remove Sub-Folders from the Filesystem</v>
       </c>
       <c r="C213" t="str">
-        <v>62.4%</v>
+        <v>62.5%</v>
       </c>
       <c r="D213" t="str">
         <v>Medium</v>
@@ -15285,7 +15271,7 @@
         <v>Count Nice Pairs in an Array</v>
       </c>
       <c r="C314" t="str">
-        <v>37.5%</v>
+        <v>37.6%</v>
       </c>
       <c r="D314" t="str">
         <v>Medium</v>
@@ -15335,7 +15321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E231"/>
   <sheetViews>
@@ -17900,7 +17886,7 @@
         <v>Remove Sub-Folders from the Filesystem</v>
       </c>
       <c r="C151" t="str">
-        <v>62.4%</v>
+        <v>62.5%</v>
       </c>
       <c r="D151" t="str">
         <v>Medium</v>
